--- a/IEDC_Classification_fill/manual_insert/IEDC_89_model_native_regions.xlsx
+++ b/IEDC_Classification_fill/manual_insert/IEDC_89_model_native_regions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D023607C-B83E-4464-95E5-FCAFB4042341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA979573-FA59-43FE-B4A0-D5DCA9EFD6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="1110">
   <si>
     <t>Column</t>
   </si>
@@ -3232,12 +3232,6 @@
     <t>RECC 2.6|Latin America</t>
   </si>
   <si>
-    <t>RECC 2.6|Czechia</t>
-  </si>
-  <si>
-    <t>RECC 2.6|United Kingdom</t>
-  </si>
-  <si>
     <t>world total</t>
   </si>
   <si>
@@ -3356,13 +3350,16 @@
   </si>
   <si>
     <t>IMAGE|Rest of Southern Africa</t>
+  </si>
+  <si>
+    <t>general IMAGE aggregated region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3749,17 +3746,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.83984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +3776,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3785,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3808,7 +3805,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -3817,7 +3814,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3823,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3835,7 +3832,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3844,7 +3841,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3853,7 +3850,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3864,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3875,14 +3872,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -3893,7 +3890,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3904,7 +3901,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3915,14 +3912,14 @@
         <v>911</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3933,82 +3930,82 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -4017,7 +4014,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -4026,7 +4023,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -4035,7 +4032,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -4044,12 +4041,12 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4062,14 +4059,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T392"/>
+  <dimension ref="A1:T385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H387" sqref="H387"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.05078125" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="8.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -4080,7 +4077,7 @@
     <col min="11" max="11" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -4142,7 +4139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" s="8" customFormat="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4151,11 +4148,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="10" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -4172,7 +4169,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" s="8" customFormat="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4208,7 +4205,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" s="8" customFormat="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4244,7 +4241,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" s="8" customFormat="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4280,7 +4277,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" s="8" customFormat="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4316,7 +4313,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" s="8" customFormat="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4352,7 +4349,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" s="8" customFormat="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4388,7 +4385,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" s="8" customFormat="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4424,7 +4421,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" s="8" customFormat="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4460,7 +4457,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" s="8" customFormat="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4496,7 +4493,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" s="8" customFormat="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4532,7 +4529,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" s="8" customFormat="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4568,7 +4565,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" s="8" customFormat="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4604,7 +4601,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" s="8" customFormat="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4640,7 +4637,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" s="8" customFormat="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -4676,7 +4673,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" s="8" customFormat="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4712,7 +4709,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" s="8" customFormat="1">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -4748,7 +4745,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" s="8" customFormat="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4784,7 +4781,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" s="8" customFormat="1">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -4820,7 +4817,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" s="8" customFormat="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4856,7 +4853,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" s="8" customFormat="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -4892,7 +4889,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" s="8" customFormat="1">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4928,7 +4925,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" s="8" customFormat="1">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -4964,7 +4961,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" s="8" customFormat="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5000,7 +4997,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" s="8" customFormat="1">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -5036,7 +5033,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" s="8" customFormat="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5072,7 +5069,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" s="8" customFormat="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -5108,7 +5105,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" s="8" customFormat="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5144,7 +5141,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" s="8" customFormat="1">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -5180,7 +5177,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" s="8" customFormat="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5216,7 +5213,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" s="8" customFormat="1">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -5252,7 +5249,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" s="8" customFormat="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5288,7 +5285,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" s="8" customFormat="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -5324,7 +5321,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" s="8" customFormat="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5360,7 +5357,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" s="8" customFormat="1">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -5396,7 +5393,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" s="8" customFormat="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5432,7 +5429,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -5456,7 +5453,7 @@
       </c>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5480,7 +5477,7 @@
       </c>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -5504,7 +5501,7 @@
       </c>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5527,7 +5524,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5573,7 +5570,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -5596,7 +5593,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -5642,7 +5639,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20">
       <c r="A48" s="7">
         <v>47</v>
       </c>
@@ -5688,7 +5685,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>49</v>
       </c>
@@ -5734,7 +5731,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5757,7 +5754,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
@@ -5780,7 +5777,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -5826,7 +5823,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5849,7 +5846,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -5872,7 +5869,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5895,7 +5892,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -5964,7 +5961,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -6010,7 +6007,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -6056,7 +6053,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6079,7 +6076,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -6102,7 +6099,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -6148,7 +6145,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6217,7 +6214,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -6240,7 +6237,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6263,7 +6260,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -6286,7 +6283,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6401,7 +6398,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6447,7 +6444,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -6470,7 +6467,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6493,7 +6490,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -6516,7 +6513,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6539,7 +6536,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -6562,7 +6559,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6585,7 +6582,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -6608,7 +6605,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6631,7 +6628,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -6654,7 +6651,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
@@ -6700,7 +6697,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6723,7 +6720,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8">
       <c r="A94" s="7">
         <v>93</v>
       </c>
@@ -6746,7 +6743,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6769,7 +6766,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -6792,7 +6789,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6815,7 +6812,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8">
       <c r="A98" s="7">
         <v>97</v>
       </c>
@@ -6838,7 +6835,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6861,7 +6858,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8">
       <c r="A100" s="7">
         <v>99</v>
       </c>
@@ -6884,7 +6881,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6907,7 +6904,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8">
       <c r="A102" s="7">
         <v>101</v>
       </c>
@@ -6930,7 +6927,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6953,7 +6950,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6999,7 +6996,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -7022,7 +7019,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8">
       <c r="A108" s="7">
         <v>107</v>
       </c>
@@ -7068,7 +7065,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7091,7 +7088,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8">
       <c r="A110" s="7">
         <v>109</v>
       </c>
@@ -7114,7 +7111,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8">
       <c r="A112" s="7">
         <v>111</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8">
       <c r="A114" s="7">
         <v>113</v>
       </c>
@@ -7206,7 +7203,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7229,7 +7226,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8">
       <c r="A116" s="7">
         <v>115</v>
       </c>
@@ -7252,7 +7249,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7275,7 +7272,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8">
       <c r="A118" s="7">
         <v>117</v>
       </c>
@@ -7298,7 +7295,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7321,7 +7318,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8">
       <c r="A120" s="7">
         <v>119</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7367,7 +7364,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -7390,7 +7387,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7413,7 +7410,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -7436,7 +7433,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7459,7 +7456,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7551,7 +7548,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -7574,7 +7571,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7597,7 +7594,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -7620,7 +7617,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7643,7 +7640,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -7666,7 +7663,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7689,7 +7686,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -7712,7 +7709,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7735,7 +7732,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7781,7 +7778,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -7804,7 +7801,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7827,7 +7824,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -7896,7 +7893,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7919,7 +7916,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -7942,7 +7939,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7965,7 +7962,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -7988,7 +7985,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8011,7 +8008,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -8034,7 +8031,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8057,7 +8054,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -8080,7 +8077,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8103,7 +8100,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -8126,7 +8123,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8149,7 +8146,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8195,7 +8192,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -8218,7 +8215,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8241,7 +8238,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -8264,7 +8261,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8287,7 +8284,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -8310,7 +8307,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8333,7 +8330,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -8356,7 +8353,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8379,7 +8376,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8425,7 +8422,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8471,7 +8468,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -8494,7 +8491,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8517,7 +8514,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -8540,7 +8537,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8563,7 +8560,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -8586,7 +8583,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -8632,7 +8629,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -8678,7 +8675,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8701,7 +8698,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -8724,7 +8721,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8747,7 +8744,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8793,7 +8790,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8839,7 +8836,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8885,7 +8882,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8931,7 +8928,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -8954,7 +8951,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8977,7 +8974,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -9000,7 +8997,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9023,7 +9020,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -9046,7 +9043,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9069,7 +9066,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -9092,7 +9089,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9115,7 +9112,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -9138,7 +9135,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -9184,7 +9181,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9207,7 +9204,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:8">
       <c r="A202" s="7">
         <v>201</v>
       </c>
@@ -9230,7 +9227,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9253,7 +9250,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:8">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -9276,7 +9273,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9299,7 +9296,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -9322,7 +9319,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>206</v>
       </c>
@@ -9345,7 +9342,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:8">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9437,7 +9434,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:8">
       <c r="A212" s="7">
         <v>211</v>
       </c>
@@ -9460,7 +9457,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9483,7 +9480,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:8">
       <c r="A214" s="7">
         <v>213</v>
       </c>
@@ -9506,7 +9503,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9529,7 +9526,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:8">
       <c r="A216" s="7">
         <v>215</v>
       </c>
@@ -9552,7 +9549,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9575,7 +9572,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:8">
       <c r="A218" s="7">
         <v>217</v>
       </c>
@@ -9598,7 +9595,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9621,7 +9618,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:8">
       <c r="A220" s="7">
         <v>219</v>
       </c>
@@ -9644,7 +9641,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9667,7 +9664,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:8">
       <c r="A222" s="7">
         <v>221</v>
       </c>
@@ -9690,7 +9687,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9713,7 +9710,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:8">
       <c r="A224" s="7">
         <v>223</v>
       </c>
@@ -9736,7 +9733,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9759,7 +9756,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:8">
       <c r="A226" s="7">
         <v>225</v>
       </c>
@@ -9782,7 +9779,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9805,7 +9802,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:8">
       <c r="A228" s="7">
         <v>227</v>
       </c>
@@ -9828,7 +9825,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9851,7 +9848,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:8">
       <c r="A230" s="7">
         <v>229</v>
       </c>
@@ -9874,7 +9871,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9897,7 +9894,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:8">
       <c r="A232" s="7">
         <v>231</v>
       </c>
@@ -9920,7 +9917,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9943,7 +9940,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:8">
       <c r="A234" s="7">
         <v>233</v>
       </c>
@@ -9966,7 +9963,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9989,7 +9986,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:8">
       <c r="A236" s="7">
         <v>235</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10035,7 +10032,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:8">
       <c r="A238" s="7">
         <v>237</v>
       </c>
@@ -10058,7 +10055,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10081,7 +10078,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:8">
       <c r="A240" s="7">
         <v>239</v>
       </c>
@@ -10104,7 +10101,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10127,7 +10124,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8">
       <c r="A242" s="7">
         <v>241</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10173,7 +10170,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8">
       <c r="A244" s="7">
         <v>243</v>
       </c>
@@ -10196,7 +10193,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10219,7 +10216,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8">
       <c r="A246" s="7">
         <v>245</v>
       </c>
@@ -10242,7 +10239,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10265,7 +10262,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8">
       <c r="A248" s="7">
         <v>247</v>
       </c>
@@ -10288,7 +10285,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8">
       <c r="A250" s="7">
         <v>249</v>
       </c>
@@ -10334,7 +10331,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10357,7 +10354,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8">
       <c r="A252" s="7">
         <v>251</v>
       </c>
@@ -10380,7 +10377,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10397,7 +10394,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -10414,7 +10411,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10431,7 +10428,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8">
       <c r="A256" s="7">
         <v>255</v>
       </c>
@@ -10448,7 +10445,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10465,7 +10462,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6">
       <c r="A258" s="7">
         <v>257</v>
       </c>
@@ -10482,7 +10479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10499,7 +10496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6">
       <c r="A260" s="7">
         <v>259</v>
       </c>
@@ -10516,7 +10513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10533,7 +10530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6">
       <c r="A262" s="7">
         <v>261</v>
       </c>
@@ -10550,7 +10547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6">
       <c r="A264" s="7">
         <v>263</v>
       </c>
@@ -10584,7 +10581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10601,7 +10598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6">
       <c r="A266" s="7">
         <v>265</v>
       </c>
@@ -10618,7 +10615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10635,7 +10632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6">
       <c r="A268" s="7">
         <v>267</v>
       </c>
@@ -10652,7 +10649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10669,7 +10666,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6">
       <c r="A270" s="7">
         <v>269</v>
       </c>
@@ -10686,7 +10683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10703,7 +10700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6">
       <c r="A272" s="7">
         <v>271</v>
       </c>
@@ -10720,7 +10717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10737,7 +10734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6">
       <c r="A274" s="7">
         <v>273</v>
       </c>
@@ -10754,7 +10751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10771,7 +10768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6">
       <c r="A276" s="7">
         <v>275</v>
       </c>
@@ -10788,7 +10785,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6">
       <c r="A278" s="7">
         <v>277</v>
       </c>
@@ -10822,7 +10819,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10839,7 +10836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6">
       <c r="A280" s="7">
         <v>279</v>
       </c>
@@ -10856,7 +10853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10873,7 +10870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -10890,7 +10887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10907,7 +10904,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6">
       <c r="A284" s="7">
         <v>283</v>
       </c>
@@ -10924,7 +10921,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10941,7 +10938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6">
       <c r="A286" s="7">
         <v>285</v>
       </c>
@@ -10958,7 +10955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10975,7 +10972,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6">
       <c r="A288" s="7">
         <v>287</v>
       </c>
@@ -10992,7 +10989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:10">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11009,7 +11006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:10">
       <c r="A290" s="7">
         <v>289</v>
       </c>
@@ -11035,7 +11032,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:10">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11052,7 +11049,7 @@
         <v>985</v>
       </c>
       <c r="G291" s="10" t="str">
-        <f t="shared" ref="G291:G354" si="0">"IMAGE 3.2|"&amp;J291</f>
+        <f t="shared" ref="G291:G315" si="0">"IMAGE 3.2|"&amp;J291</f>
         <v>IMAGE 3.2|CAN</v>
       </c>
       <c r="H291" s="10"/>
@@ -11061,7 +11058,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:10">
       <c r="A292" s="7">
         <v>291</v>
       </c>
@@ -11087,7 +11084,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:10">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11113,7 +11110,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:10">
       <c r="A294" s="7">
         <v>293</v>
       </c>
@@ -11139,7 +11136,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:10">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11165,7 +11162,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:10">
       <c r="A296" s="7">
         <v>295</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:10">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11217,7 +11214,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:10">
       <c r="A298" s="7">
         <v>297</v>
       </c>
@@ -11243,7 +11240,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:10">
       <c r="A299">
         <v>298</v>
       </c>
@@ -11269,7 +11266,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:10">
       <c r="A300" s="7">
         <v>299</v>
       </c>
@@ -11295,7 +11292,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:10">
       <c r="A301">
         <v>300</v>
       </c>
@@ -11321,7 +11318,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:10">
       <c r="A302" s="7">
         <v>301</v>
       </c>
@@ -11347,7 +11344,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:10">
       <c r="A303">
         <v>302</v>
       </c>
@@ -11373,7 +11370,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:10">
       <c r="A304" s="7">
         <v>303</v>
       </c>
@@ -11399,7 +11396,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:10">
       <c r="A305">
         <v>304</v>
       </c>
@@ -11425,7 +11422,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:10">
       <c r="A306" s="7">
         <v>305</v>
       </c>
@@ -11451,7 +11448,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:10">
       <c r="A307">
         <v>306</v>
       </c>
@@ -11477,7 +11474,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:10">
       <c r="A308" s="7">
         <v>307</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:10">
       <c r="A309">
         <v>308</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:10">
       <c r="A310" s="7">
         <v>309</v>
       </c>
@@ -11555,7 +11552,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:10">
       <c r="A311">
         <v>310</v>
       </c>
@@ -11581,7 +11578,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:10">
       <c r="A312" s="7">
         <v>311</v>
       </c>
@@ -11607,7 +11604,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:10">
       <c r="A313">
         <v>312</v>
       </c>
@@ -11633,7 +11630,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:10">
       <c r="A314" s="7">
         <v>313</v>
       </c>
@@ -11659,7 +11656,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:10">
       <c r="A315">
         <v>314</v>
       </c>
@@ -11685,7 +11682,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:10">
       <c r="A316" s="7">
         <v>315</v>
       </c>
@@ -11711,7 +11708,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:10">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11728,7 +11725,7 @@
         <v>1011</v>
       </c>
       <c r="G317" s="10" t="str">
-        <f t="shared" ref="G317:G365" si="1">"IMAGE 3.4|"&amp;J317</f>
+        <f t="shared" ref="G317:G341" si="1">"IMAGE 3.4|"&amp;J317</f>
         <v>IMAGE 3.4|CAN</v>
       </c>
       <c r="H317" s="10"/>
@@ -11737,7 +11734,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:10">
       <c r="A318" s="7">
         <v>317</v>
       </c>
@@ -11763,7 +11760,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:10">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11789,7 +11786,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:10">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -11815,7 +11812,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:10">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11841,7 +11838,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:10">
       <c r="A322" s="7">
         <v>321</v>
       </c>
@@ -11867,7 +11864,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:10">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:10">
       <c r="A324" s="7">
         <v>323</v>
       </c>
@@ -11919,7 +11916,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:10">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11945,7 +11942,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:10">
       <c r="A326" s="7">
         <v>325</v>
       </c>
@@ -11971,7 +11968,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:10">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11997,7 +11994,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:10">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -12023,7 +12020,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>328</v>
       </c>
@@ -12049,7 +12046,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:10">
       <c r="A330" s="7">
         <v>329</v>
       </c>
@@ -12075,7 +12072,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:10">
       <c r="A331">
         <v>330</v>
       </c>
@@ -12101,7 +12098,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:10">
       <c r="A332" s="7">
         <v>331</v>
       </c>
@@ -12127,7 +12124,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:10">
       <c r="A333">
         <v>332</v>
       </c>
@@ -12153,7 +12150,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:10">
       <c r="A334" s="7">
         <v>333</v>
       </c>
@@ -12179,7 +12176,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:10">
       <c r="A335">
         <v>334</v>
       </c>
@@ -12205,7 +12202,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:10">
       <c r="A336" s="7">
         <v>335</v>
       </c>
@@ -12231,7 +12228,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:10">
       <c r="A337">
         <v>336</v>
       </c>
@@ -12257,7 +12254,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:10">
       <c r="A338" s="7">
         <v>337</v>
       </c>
@@ -12283,7 +12280,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:10">
       <c r="A339">
         <v>338</v>
       </c>
@@ -12309,7 +12306,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:10">
       <c r="A340" s="7">
         <v>339</v>
       </c>
@@ -12335,7 +12332,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:10">
       <c r="A341">
         <v>340</v>
       </c>
@@ -12361,7 +12358,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:10">
       <c r="A342" s="7">
         <v>341</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:10">
       <c r="A343">
         <v>342</v>
       </c>
@@ -12404,7 +12401,7 @@
         <v>132</v>
       </c>
       <c r="G343" s="10" t="str">
-        <f t="shared" ref="G343:G365" si="2">"RECC 2.5|"&amp;J343</f>
+        <f t="shared" ref="G343:G361" si="2">"RECC 2.5|"&amp;J343</f>
         <v>RECC 2.5|R32CHN</v>
       </c>
       <c r="H343" s="8"/>
@@ -12413,7 +12410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:10">
       <c r="A344" s="7">
         <v>343</v>
       </c>
@@ -12439,7 +12436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:10">
       <c r="A345">
         <v>344</v>
       </c>
@@ -12465,7 +12462,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:10">
       <c r="A346" s="7">
         <v>345</v>
       </c>
@@ -12491,7 +12488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:10">
       <c r="A347">
         <v>346</v>
       </c>
@@ -12517,7 +12514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:10">
       <c r="A348" s="7">
         <v>347</v>
       </c>
@@ -12543,7 +12540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:10">
       <c r="A349">
         <v>348</v>
       </c>
@@ -12569,7 +12566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:10">
       <c r="A350" s="7">
         <v>349</v>
       </c>
@@ -12595,7 +12592,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:10">
       <c r="A351">
         <v>350</v>
       </c>
@@ -12621,7 +12618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:10">
       <c r="A352" s="7">
         <v>351</v>
       </c>
@@ -12647,7 +12644,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:10">
       <c r="A353">
         <v>352</v>
       </c>
@@ -12673,7 +12670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:10">
       <c r="A354" s="7">
         <v>353</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:10">
       <c r="A355">
         <v>354</v>
       </c>
@@ -12725,7 +12722,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:10">
       <c r="A356" s="7">
         <v>355</v>
       </c>
@@ -12751,7 +12748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>356</v>
       </c>
@@ -12777,7 +12774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:10">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -12803,7 +12800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:10">
       <c r="A359">
         <v>358</v>
       </c>
@@ -12829,7 +12826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:10">
       <c r="A360" s="7">
         <v>359</v>
       </c>
@@ -12855,7 +12852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:10">
       <c r="A361">
         <v>360</v>
       </c>
@@ -12881,7 +12878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:10">
       <c r="A362" s="7">
         <v>361</v>
       </c>
@@ -12895,19 +12892,19 @@
         <v>1053</v>
       </c>
       <c r="F362" s="10" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="G362" s="10" t="str">
-        <f>"RECC 2.6|"&amp;J362</f>
-        <v>RECC 2.6|R32CAN</v>
+        <f t="shared" ref="G362:G367" si="3">"RECC 2.6|"&amp;J362</f>
+        <v>RECC 2.6|R5.2OECD_Other</v>
       </c>
       <c r="H362" s="10"/>
       <c r="I362" s="10"/>
       <c r="J362" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363">
         <v>362</v>
       </c>
@@ -12921,19 +12918,19 @@
         <v>1053</v>
       </c>
       <c r="F363" s="10" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="G363" s="10" t="str">
-        <f t="shared" ref="G363:G374" si="3">"RECC 2.6|"&amp;J363</f>
-        <v>RECC 2.6|R32CHN</v>
+        <f t="shared" si="3"/>
+        <v>RECC 2.6|R5.2REF_Other</v>
       </c>
       <c r="H363" s="10"/>
       <c r="I363" s="10"/>
       <c r="J363" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364" s="7">
         <v>363</v>
       </c>
@@ -12947,19 +12944,19 @@
         <v>1053</v>
       </c>
       <c r="F364" s="10" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="G364" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>RECC 2.6|R32IND</v>
+        <v>RECC 2.6|R5.2ASIA_Other</v>
       </c>
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
       <c r="J364" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
       <c r="A365">
         <v>364</v>
       </c>
@@ -12973,19 +12970,19 @@
         <v>1053</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="G365" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>RECC 2.6|R32JPN</v>
+        <v>RECC 2.6|R5.2MNF_Other</v>
       </c>
       <c r="H365" s="10"/>
       <c r="I365" s="10"/>
       <c r="J365" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366" s="7">
         <v>365</v>
       </c>
@@ -12999,19 +12996,19 @@
         <v>1053</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="G366" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>RECC 2.6|R32USA</v>
+        <v>RECC 2.6|R5.2SSA_Other</v>
       </c>
       <c r="H366" s="10"/>
       <c r="I366" s="10"/>
       <c r="J366" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367">
         <v>366</v>
       </c>
@@ -13025,19 +13022,19 @@
         <v>1053</v>
       </c>
       <c r="F367" s="10" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="G367" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2OECD_Other</v>
+        <v>RECC 2.6|R5.2LAM_Other</v>
       </c>
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
       <c r="J367" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368" s="7">
         <v>367</v>
       </c>
@@ -13045,25 +13042,13 @@
         <v>89</v>
       </c>
       <c r="D368" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>1053</v>
+        <v>1109</v>
       </c>
       <c r="F368" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G368" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2REF_Other</v>
-      </c>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>368</v>
       </c>
@@ -13071,25 +13056,13 @@
         <v>89</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E369" s="2" t="s">
-        <v>1053</v>
+        <v>1109</v>
       </c>
       <c r="F369" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G369" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2ASIA_Other</v>
-      </c>
-      <c r="H369" s="10"/>
-      <c r="I369" s="10"/>
-      <c r="J369" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" s="7">
         <v>369</v>
       </c>
@@ -13097,25 +13070,13 @@
         <v>89</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E370" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F370" s="10" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G370" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2MNF_Other</v>
-      </c>
-      <c r="H370" s="10"/>
-      <c r="I370" s="10"/>
-      <c r="J370" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1109</v>
+      </c>
+      <c r="F370" s="11" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>370</v>
       </c>
@@ -13123,25 +13084,13 @@
         <v>89</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E371" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F371" s="10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G371" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2SSA_Other</v>
-      </c>
-      <c r="H371" s="10"/>
-      <c r="I371" s="10"/>
-      <c r="J371" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1109</v>
+      </c>
+      <c r="F371" s="11" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" s="7">
         <v>371</v>
       </c>
@@ -13149,25 +13098,13 @@
         <v>89</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F372" s="10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G372" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|R5.2LAM_Other</v>
-      </c>
-      <c r="H372" s="10"/>
-      <c r="I372" s="10"/>
-      <c r="J372" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1109</v>
+      </c>
+      <c r="F372" s="12" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>372</v>
       </c>
@@ -13175,25 +13112,13 @@
         <v>89</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E373" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F373" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G373" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|Czech Republic</v>
-      </c>
-      <c r="H373" s="10"/>
-      <c r="I373" s="10"/>
-      <c r="J373" s="2" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1109</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="7">
         <v>373</v>
       </c>
@@ -13201,220 +13126,164 @@
         <v>89</v>
       </c>
       <c r="D374" s="15" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E374" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F374" s="10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G374" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>RECC 2.6|UK</v>
-      </c>
-      <c r="H374" s="10"/>
-      <c r="I374" s="10"/>
-      <c r="J374" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1109</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>374</v>
       </c>
       <c r="B375">
         <v>89</v>
       </c>
-      <c r="F375" s="10" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D375" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" s="7">
         <v>375</v>
       </c>
       <c r="B376">
         <v>89</v>
       </c>
-      <c r="F376" s="10" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D376" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>376</v>
       </c>
       <c r="B377">
         <v>89</v>
       </c>
-      <c r="F377" s="11" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D377" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" s="7">
         <v>377</v>
       </c>
       <c r="B378">
         <v>89</v>
       </c>
-      <c r="F378" s="11" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D378" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>378</v>
       </c>
       <c r="B379">
         <v>89</v>
       </c>
-      <c r="F379" s="12" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D379" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" s="7">
         <v>379</v>
       </c>
       <c r="B380">
         <v>89</v>
       </c>
+      <c r="D380" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F380" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>380</v>
       </c>
       <c r="B381">
         <v>89</v>
       </c>
+      <c r="D381" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F381" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" s="7">
         <v>381</v>
       </c>
       <c r="B382">
         <v>89</v>
       </c>
+      <c r="D382" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F382" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>382</v>
       </c>
       <c r="B383">
         <v>89</v>
       </c>
+      <c r="D383" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F383" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="7">
         <v>383</v>
       </c>
       <c r="B384">
         <v>89</v>
       </c>
+      <c r="D384" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F384" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>384</v>
       </c>
       <c r="B385">
         <v>89</v>
       </c>
+      <c r="D385" s="15" t="s">
+        <v>1109</v>
+      </c>
       <c r="F385" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A386" s="7">
-        <v>385</v>
-      </c>
-      <c r="B386">
-        <v>89</v>
-      </c>
-      <c r="F386" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A387">
-        <v>386</v>
-      </c>
-      <c r="B387">
-        <v>89</v>
-      </c>
-      <c r="F387" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A388" s="7">
-        <v>387</v>
-      </c>
-      <c r="B388">
-        <v>89</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A389">
-        <v>388</v>
-      </c>
-      <c r="B389">
-        <v>89</v>
-      </c>
-      <c r="F389" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A390" s="7">
-        <v>389</v>
-      </c>
-      <c r="B390">
-        <v>89</v>
-      </c>
-      <c r="F390" t="s">
         <v>1108</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A391">
-        <v>390</v>
-      </c>
-      <c r="B391">
-        <v>89</v>
-      </c>
-      <c r="F391" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A392" s="7">
-        <v>391</v>
-      </c>
-      <c r="B392">
-        <v>89</v>
-      </c>
-      <c r="F392" t="s">
-        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -13428,10 +13297,10 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F104" sqref="F87:F104"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.05078125" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="3" width="8.578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -13442,7 +13311,7 @@
     <col min="11" max="11" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -13504,7 +13373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:20" s="8" customFormat="1">
       <c r="A2" t="s">
         <v>913</v>
       </c>
@@ -13555,7 +13424,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:20" s="8" customFormat="1">
       <c r="A3" t="s">
         <v>913</v>
       </c>
@@ -13573,7 +13442,7 @@
         <v>985</v>
       </c>
       <c r="G3" s="10" t="str">
-        <f t="shared" ref="G3:G66" si="4">"IMAGE 3.2|"&amp;J3</f>
+        <f t="shared" ref="G3:G27" si="4">"IMAGE 3.2|"&amp;J3</f>
         <v>IMAGE 3.2|CAN</v>
       </c>
       <c r="H3" s="10"/>
@@ -13606,7 +13475,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:20" s="8" customFormat="1">
       <c r="A4" t="s">
         <v>913</v>
       </c>
@@ -13657,7 +13526,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:20" s="8" customFormat="1">
       <c r="A5" t="s">
         <v>913</v>
       </c>
@@ -13708,7 +13577,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:20" s="8" customFormat="1">
       <c r="A6" t="s">
         <v>913</v>
       </c>
@@ -13759,7 +13628,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:20" s="8" customFormat="1">
       <c r="A7" t="s">
         <v>913</v>
       </c>
@@ -13810,7 +13679,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:20" s="8" customFormat="1">
       <c r="A8" t="s">
         <v>913</v>
       </c>
@@ -13861,7 +13730,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:20" s="8" customFormat="1">
       <c r="A9" t="s">
         <v>913</v>
       </c>
@@ -13912,7 +13781,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:20" s="8" customFormat="1">
       <c r="A10" t="s">
         <v>913</v>
       </c>
@@ -13963,7 +13832,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:20" s="8" customFormat="1">
       <c r="A11" t="s">
         <v>913</v>
       </c>
@@ -14014,7 +13883,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:20" s="8" customFormat="1">
       <c r="A12" t="s">
         <v>913</v>
       </c>
@@ -14065,7 +13934,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:20" s="8" customFormat="1">
       <c r="A13" t="s">
         <v>913</v>
       </c>
@@ -14116,7 +13985,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:20" s="8" customFormat="1">
       <c r="A14" t="s">
         <v>913</v>
       </c>
@@ -14167,7 +14036,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:20" s="8" customFormat="1">
       <c r="A15" t="s">
         <v>913</v>
       </c>
@@ -14218,7 +14087,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:20" s="8" customFormat="1">
       <c r="A16" t="s">
         <v>913</v>
       </c>
@@ -14269,7 +14138,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" s="8" customFormat="1">
       <c r="A17" t="s">
         <v>913</v>
       </c>
@@ -14320,7 +14189,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" s="8" customFormat="1">
       <c r="A18" t="s">
         <v>913</v>
       </c>
@@ -14371,7 +14240,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" s="8" customFormat="1">
       <c r="A19" t="s">
         <v>913</v>
       </c>
@@ -14422,7 +14291,7 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" s="8" customFormat="1">
       <c r="A20" t="s">
         <v>913</v>
       </c>
@@ -14473,7 +14342,7 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" s="8" customFormat="1">
       <c r="A21" t="s">
         <v>913</v>
       </c>
@@ -14524,7 +14393,7 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" s="8" customFormat="1">
       <c r="A22" t="s">
         <v>913</v>
       </c>
@@ -14575,7 +14444,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:20" s="8" customFormat="1">
       <c r="A23" t="s">
         <v>913</v>
       </c>
@@ -14626,7 +14495,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:20" s="8" customFormat="1">
       <c r="A24" t="s">
         <v>913</v>
       </c>
@@ -14677,7 +14546,7 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" s="8" customFormat="1">
       <c r="A25" t="s">
         <v>913</v>
       </c>
@@ -14728,7 +14597,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" s="8" customFormat="1">
       <c r="A26" t="s">
         <v>913</v>
       </c>
@@ -14779,7 +14648,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" s="8" customFormat="1">
       <c r="A27" t="s">
         <v>913</v>
       </c>
@@ -14830,7 +14699,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" s="8" customFormat="1">
       <c r="A28" t="s">
         <v>913</v>
       </c>
@@ -14881,7 +14750,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" s="8" customFormat="1">
       <c r="A29" t="s">
         <v>913</v>
       </c>
@@ -14899,7 +14768,7 @@
         <v>1011</v>
       </c>
       <c r="G29" s="10" t="str">
-        <f t="shared" ref="G29:G77" si="5">"IMAGE 3.4|"&amp;J29</f>
+        <f t="shared" ref="G29:G53" si="5">"IMAGE 3.4|"&amp;J29</f>
         <v>IMAGE 3.4|CAN</v>
       </c>
       <c r="H29" s="10"/>
@@ -14932,7 +14801,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" s="8" customFormat="1">
       <c r="A30" t="s">
         <v>913</v>
       </c>
@@ -14983,7 +14852,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" s="8" customFormat="1">
       <c r="A31" t="s">
         <v>913</v>
       </c>
@@ -15034,7 +14903,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" s="8" customFormat="1">
       <c r="A32" t="s">
         <v>913</v>
       </c>
@@ -15085,7 +14954,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:20" s="8" customFormat="1">
       <c r="A33" t="s">
         <v>913</v>
       </c>
@@ -15136,7 +15005,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:20" s="8" customFormat="1">
       <c r="A34" t="s">
         <v>913</v>
       </c>
@@ -15187,7 +15056,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:20" s="8" customFormat="1">
       <c r="A35" t="s">
         <v>913</v>
       </c>
@@ -15238,7 +15107,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:20" s="8" customFormat="1">
       <c r="A36" t="s">
         <v>913</v>
       </c>
@@ -15289,7 +15158,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:20" s="8" customFormat="1">
       <c r="A37" t="s">
         <v>913</v>
       </c>
@@ -15340,7 +15209,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:20" s="8" customFormat="1">
       <c r="A38" t="s">
         <v>913</v>
       </c>
@@ -15391,7 +15260,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:20" s="8" customFormat="1">
       <c r="A39" t="s">
         <v>913</v>
       </c>
@@ -15442,7 +15311,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:20" s="8" customFormat="1">
       <c r="A40" t="s">
         <v>913</v>
       </c>
@@ -15493,7 +15362,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:20" s="8" customFormat="1">
       <c r="A41" t="s">
         <v>913</v>
       </c>
@@ -15544,7 +15413,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:20" s="8" customFormat="1">
       <c r="A42" t="s">
         <v>913</v>
       </c>
@@ -15595,7 +15464,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:20" s="8" customFormat="1">
       <c r="A43" t="s">
         <v>913</v>
       </c>
@@ -15646,7 +15515,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:20" s="8" customFormat="1">
       <c r="A44" t="s">
         <v>913</v>
       </c>
@@ -15697,7 +15566,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:20" s="8" customFormat="1">
       <c r="A45" t="s">
         <v>913</v>
       </c>
@@ -15748,7 +15617,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:20" s="8" customFormat="1">
       <c r="A46" t="s">
         <v>913</v>
       </c>
@@ -15799,7 +15668,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:20" s="8" customFormat="1">
       <c r="A47" t="s">
         <v>913</v>
       </c>
@@ -15850,7 +15719,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:20" s="8" customFormat="1">
       <c r="A48" t="s">
         <v>913</v>
       </c>
@@ -15901,7 +15770,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
     </row>
-    <row r="49" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:20" s="8" customFormat="1">
       <c r="A49" t="s">
         <v>913</v>
       </c>
@@ -15952,7 +15821,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
-    <row r="50" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:20" s="8" customFormat="1">
       <c r="A50" t="s">
         <v>913</v>
       </c>
@@ -16003,7 +15872,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
-    <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:20" s="8" customFormat="1">
       <c r="A51" t="s">
         <v>913</v>
       </c>
@@ -16054,7 +15923,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
-    <row r="52" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:20" s="8" customFormat="1">
       <c r="A52" t="s">
         <v>913</v>
       </c>
@@ -16105,7 +15974,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:20" s="8" customFormat="1">
       <c r="A53" t="s">
         <v>913</v>
       </c>
@@ -16156,7 +16025,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:20" s="8" customFormat="1">
       <c r="A54" t="s">
         <v>913</v>
       </c>
@@ -16206,7 +16075,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:20" s="8" customFormat="1">
       <c r="A55" t="s">
         <v>913</v>
       </c>
@@ -16224,7 +16093,7 @@
         <v>132</v>
       </c>
       <c r="G55" s="10" t="str">
-        <f t="shared" ref="G55:G77" si="8">"RECC 2.5|"&amp;J55</f>
+        <f t="shared" ref="G55:G73" si="8">"RECC 2.5|"&amp;J55</f>
         <v>RECC 2.5|R32CHN</v>
       </c>
       <c r="I55" s="10"/>
@@ -16256,7 +16125,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:20" s="8" customFormat="1">
       <c r="A56" t="s">
         <v>913</v>
       </c>
@@ -16306,7 +16175,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
     </row>
-    <row r="57" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:20" s="8" customFormat="1">
       <c r="A57" t="s">
         <v>913</v>
       </c>
@@ -16356,7 +16225,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:20" s="8" customFormat="1">
       <c r="A58" t="s">
         <v>913</v>
       </c>
@@ -16406,7 +16275,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
     </row>
-    <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:20" s="8" customFormat="1">
       <c r="A59" t="s">
         <v>913</v>
       </c>
@@ -16456,7 +16325,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:20" s="8" customFormat="1">
       <c r="A60" t="s">
         <v>913</v>
       </c>
@@ -16506,7 +16375,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
     </row>
-    <row r="61" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:20" s="8" customFormat="1">
       <c r="A61" t="s">
         <v>913</v>
       </c>
@@ -16556,7 +16425,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
     </row>
-    <row r="62" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:20" s="8" customFormat="1">
       <c r="A62" t="s">
         <v>913</v>
       </c>
@@ -16606,7 +16475,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:20" s="8" customFormat="1">
       <c r="A63" t="s">
         <v>913</v>
       </c>
@@ -16656,7 +16525,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:20" s="8" customFormat="1">
       <c r="A64" t="s">
         <v>913</v>
       </c>
@@ -16706,7 +16575,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:20" s="8" customFormat="1">
       <c r="A65" t="s">
         <v>913</v>
       </c>
@@ -16756,7 +16625,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:20" s="8" customFormat="1">
       <c r="A66" t="s">
         <v>913</v>
       </c>
@@ -16806,7 +16675,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:20" s="8" customFormat="1">
       <c r="A67" t="s">
         <v>913</v>
       </c>
@@ -16856,7 +16725,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:20" s="8" customFormat="1">
       <c r="A68" t="s">
         <v>913</v>
       </c>
@@ -16906,7 +16775,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
     </row>
-    <row r="69" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:20" s="8" customFormat="1">
       <c r="A69" t="s">
         <v>913</v>
       </c>
@@ -16956,7 +16825,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
     </row>
-    <row r="70" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:20" s="8" customFormat="1">
       <c r="A70" t="s">
         <v>913</v>
       </c>
@@ -17006,7 +16875,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
     </row>
-    <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:20" s="8" customFormat="1">
       <c r="A71" t="s">
         <v>913</v>
       </c>
@@ -17056,7 +16925,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
     </row>
-    <row r="72" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:20" s="8" customFormat="1">
       <c r="A72" t="s">
         <v>913</v>
       </c>
@@ -17106,7 +16975,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
     </row>
-    <row r="73" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:20" s="8" customFormat="1">
       <c r="A73" t="s">
         <v>913</v>
       </c>
@@ -17156,7 +17025,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:20" s="8" customFormat="1">
       <c r="A74" t="s">
         <v>913</v>
       </c>
@@ -17183,19 +17052,19 @@
         <v>79</v>
       </c>
       <c r="K74" s="17" t="str">
-        <f t="shared" ref="K74:K112" si="11">MID(O74,5,N74-5)</f>
+        <f t="shared" ref="K74:K84" si="11">MID(O74,5,N74-5)</f>
         <v>R32CAN</v>
       </c>
       <c r="L74" s="17" t="str">
-        <f t="shared" ref="L74:L112" si="12">RIGHT(O74,M74-N74-1)</f>
+        <f t="shared" ref="L74:L84" si="12">RIGHT(O74,M74-N74-1)</f>
         <v>RECC 2.6|Canada</v>
       </c>
       <c r="M74" s="18">
-        <f t="shared" ref="M74:M112" si="13">LEN(O74)</f>
+        <f t="shared" ref="M74:M84" si="13">LEN(O74)</f>
         <v>27</v>
       </c>
       <c r="N74" s="18">
-        <f t="shared" ref="N74:N112" si="14">FIND(":",O74)</f>
+        <f t="shared" ref="N74:N84" si="14">FIND(":",O74)</f>
         <v>11</v>
       </c>
       <c r="O74" s="17" t="s">
@@ -17207,7 +17076,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:20" s="8" customFormat="1">
       <c r="A75" t="s">
         <v>913</v>
       </c>
@@ -17225,7 +17094,7 @@
         <v>1059</v>
       </c>
       <c r="G75" s="10" t="str">
-        <f t="shared" ref="F75:G86" si="15">"RECC 2.6|"&amp;J75</f>
+        <f t="shared" ref="G75:G86" si="15">"RECC 2.6|"&amp;J75</f>
         <v>RECC 2.6|R32CHN</v>
       </c>
       <c r="H75" s="10"/>
@@ -17258,7 +17127,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
     </row>
-    <row r="76" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:20" s="8" customFormat="1">
       <c r="A76" t="s">
         <v>913</v>
       </c>
@@ -17309,7 +17178,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
     </row>
-    <row r="77" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:20" s="8" customFormat="1">
       <c r="A77" t="s">
         <v>913</v>
       </c>
@@ -17360,7 +17229,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
     </row>
-    <row r="78" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:20" s="8" customFormat="1">
       <c r="A78" t="s">
         <v>913</v>
       </c>
@@ -17411,7 +17280,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
     </row>
-    <row r="79" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:20" s="8" customFormat="1">
       <c r="A79" t="s">
         <v>913</v>
       </c>
@@ -17462,7 +17331,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:20" s="8" customFormat="1">
       <c r="A80" t="s">
         <v>913</v>
       </c>
@@ -17513,7 +17382,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:20" s="8" customFormat="1">
       <c r="A81" t="s">
         <v>913</v>
       </c>
@@ -17564,7 +17433,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:20" s="8" customFormat="1">
       <c r="A82" t="s">
         <v>913</v>
       </c>
@@ -17615,7 +17484,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:20" s="8" customFormat="1">
       <c r="A83" t="s">
         <v>913</v>
       </c>
@@ -17666,7 +17535,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
     </row>
-    <row r="84" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:20" s="8" customFormat="1">
       <c r="A84" t="s">
         <v>913</v>
       </c>
@@ -17717,7 +17586,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
     </row>
-    <row r="85" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:20" s="8" customFormat="1">
       <c r="A85" t="s">
         <v>913</v>
       </c>
@@ -17732,7 +17601,7 @@
         <v>1053</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G85" s="10" t="str">
         <f t="shared" si="15"/>
@@ -17768,7 +17637,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
     </row>
-    <row r="86" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:20" s="8" customFormat="1">
       <c r="A86" t="s">
         <v>913</v>
       </c>
@@ -17783,7 +17652,7 @@
         <v>1053</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G86" s="10" t="str">
         <f t="shared" si="15"/>
@@ -17819,7 +17688,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
     </row>
-    <row r="87" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:20" s="8" customFormat="1">
       <c r="A87" t="s">
         <v>913</v>
       </c>
@@ -17830,7 +17699,7 @@
       <c r="D87" s="15"/>
       <c r="E87" s="2"/>
       <c r="F87" s="10" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -17841,7 +17710,7 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="P87"/>
       <c r="Q87" s="2"/>
@@ -17849,7 +17718,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
     </row>
-    <row r="88" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:20" s="8" customFormat="1">
       <c r="A88" t="s">
         <v>913</v>
       </c>
@@ -17860,7 +17729,7 @@
       <c r="D88" s="15"/>
       <c r="E88" s="2"/>
       <c r="F88" s="10" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -17871,7 +17740,7 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="P88"/>
       <c r="Q88" s="2"/>
@@ -17879,7 +17748,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>913</v>
       </c>
@@ -17887,16 +17756,16 @@
         <v>89</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="O89" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>913</v>
       </c>
@@ -17904,16 +17773,16 @@
         <v>89</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
       <c r="O90" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>913</v>
       </c>
@@ -17921,16 +17790,16 @@
         <v>89</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
       <c r="O91" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>913</v>
       </c>
@@ -17938,13 +17807,13 @@
         <v>89</v>
       </c>
       <c r="F92" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O92" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>913</v>
       </c>
@@ -17952,13 +17821,13 @@
         <v>89</v>
       </c>
       <c r="F93" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O93" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>913</v>
       </c>
@@ -17966,13 +17835,13 @@
         <v>89</v>
       </c>
       <c r="F94" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="O94" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>913</v>
       </c>
@@ -17980,13 +17849,13 @@
         <v>89</v>
       </c>
       <c r="F95" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="O95" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>913</v>
       </c>
@@ -17994,13 +17863,13 @@
         <v>89</v>
       </c>
       <c r="F96" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="O96" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>913</v>
       </c>
@@ -18008,13 +17877,13 @@
         <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O97" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>913</v>
       </c>
@@ -18022,13 +17891,13 @@
         <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O98" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>913</v>
       </c>
@@ -18036,13 +17905,13 @@
         <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O99" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>913</v>
       </c>
@@ -18050,13 +17919,13 @@
         <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O100" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>913</v>
       </c>
@@ -18064,13 +17933,13 @@
         <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="O101" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>913</v>
       </c>
@@ -18078,13 +17947,13 @@
         <v>89</v>
       </c>
       <c r="F102" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="O102" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>913</v>
       </c>
@@ -18092,13 +17961,13 @@
         <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="O103" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>913</v>
       </c>
@@ -18106,10 +17975,10 @@
         <v>89</v>
       </c>
       <c r="F104" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="O104" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
   </sheetData>
@@ -18126,37 +17995,37 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:2">
       <c r="B4" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:2">
       <c r="B7" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:2">
       <c r="B8" s="15"/>
     </row>
   </sheetData>
